--- a/학습자료/단답형/한국사_대조_중앙 관제 역할.xlsx
+++ b/학습자료/단답형/한국사_대조_중앙 관제 역할.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(통일신라)군사</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(백제)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>병부</t>
+          <t>내신좌평</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(통일신라)관리 인사</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(통일신라)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,12 +487,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(통일신라)공납과 부역 사무</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(발해)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>조부</t>
+          <t>충부</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(통일신라)육상 교통</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(고려)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>승부</t>
+          <t>이부</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(통일신라)의례</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(조선)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>예부</t>
+          <t>이조</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(통일신라)외국 사신 접대</t>
+          <t>호구, 조세, 어염, 광산, 조운(백제)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>영객부</t>
+          <t>내두좌평</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,12 +555,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(통일신라)국가 기밀 사무, 중시(시중), 왕권강화</t>
+          <t>호구, 조세, 어염, 광산, 조운(통일신라)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>집사부</t>
+          <t>조부, 창부</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(통일신라)재정, 회계</t>
+          <t>호구, 조세, 어염, 광산, 조운(발해)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>창부</t>
+          <t>인부</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(통일신라)집사부 + 창부</t>
+          <t>호구, 조세, 어염, 광산, 조운(고려)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>품주</t>
+          <t>호부</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(통일신라)형벌, 법률</t>
+          <t>호구, 조세, 어염, 광산, 조운(조선)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>좌이방부, 우이방부</t>
+          <t>호조</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(통일신라)감찰, 규찰</t>
+          <t>제사, 의식, 학교, 과거, 외교(백제)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>사정부</t>
+          <t>내법좌평</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,12 +640,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(통일신라)해상 교통</t>
+          <t>제사, 의식, 학교, 과거, 외교(통일신라)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>선부</t>
+          <t>예부</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>(통일신라)수공업자 관리, 사묘 공사, 감</t>
+          <t>제사, 의식, 학교, 과거, 외교(발해)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>공장부</t>
+          <t>의부</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,12 +674,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(통일신라)토목, 건축</t>
+          <t>제사, 의식, 학교, 과거, 외교(고려)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>예작부</t>
+          <t>예부</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,12 +691,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(발해) 최고 귀족 합의, 국가 중대사</t>
+          <t>제사, 의식, 학교, 과거, 외교(조선)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>정당성</t>
+          <t>예조</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,12 +708,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>(발해) 장관 '경', 좌사정 + 우사정</t>
+          <t>무관 인사, 국방, 우역, 봉수(백제)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6부</t>
+          <t>위사좌평, 병관좌평</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,12 +725,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>(발해) 신하 여론 국왕 전달, 왕의 조칙 논박. 장관 '좌상'</t>
+          <t>무관 인사, 국방, 우역, 봉수(통일신라)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>선조성</t>
+          <t>병부</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -742,12 +742,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(발해) 국왕 명령 하달, 장관 '우상'</t>
+          <t>무관 인사, 국방, 우역, 봉수(발해)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>중대성</t>
+          <t>지부</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -759,12 +759,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>(발해) 도서 출판 및 서적 관리</t>
+          <t>무관 인사, 국방, 우역, 봉수(고려)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>문적원</t>
+          <t>병부</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(발해) 최고 교육 기관</t>
+          <t>무관 인사, 국방, 우역, 봉수(조선)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>주자감</t>
+          <t>병조</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,12 +793,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(발해) 국왕 의복, 음식 등 궁정 생활 담당</t>
+          <t>법률, 소송, 노비(백제)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>전중시</t>
+          <t>조정좌평</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>(발해) 왕족 사무 담당</t>
+          <t>법률, 소송, 노비(통일신라)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>종속시</t>
+          <t>좌이방부, 우이방부</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -827,12 +827,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>(발해) 궁중 제사 담당</t>
+          <t>법률, 소송, 노비(발해)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>태상시</t>
+          <t>예부</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -844,12 +844,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(발해) 외국 사절 접대 담당</t>
+          <t>법률, 소송, 노비(고려)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>사빈시</t>
+          <t>형부</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -861,12 +861,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(발해) 전국의 창고, 국가 소유 토지 담당</t>
+          <t>법률, 소송, 노비(조선)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>대농시</t>
+          <t>형조</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(발해) 무역 업무 담당</t>
+          <t>토목, 산림, 영선, 도량형, 파발(통일신라)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>사장시</t>
+          <t>예작부, 공장부</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -895,12 +895,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(발해) 궁중의 주례 담당</t>
+          <t>토목, 산림, 영선, 도량형, 파발(발해)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>사선시</t>
+          <t>신부</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -912,15 +912,797 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>토목, 산림, 영선, 도량형, 파발(고려)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>공부</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>토목, 산림, 영선, 도량형, 파발(조선)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>공조</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(통일신라)군사</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>병부</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(통일신라)관리 인사</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>위화부</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(통일신라)공납과 부역 사무</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>조부</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(통일신라)육상 교통</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>승부</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(통일신라)의례</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>예부</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(통일신라)외국 사신 접대</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>영객부</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(통일신라)국가 기밀 사무, 중시(시중), 왕권강화</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>집사부</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(통일신라)재정, 회계</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>창부</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(통일신라)집사부 + 창부</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>품주</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(통일신라)형벌, 법률</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>좌이방부, 우이방부</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(통일신라)감찰, 규찰</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>사정부</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(통일신라)해상 교통</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>선부</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(통일신라)수공업자 관리, 사묘 공사, 감</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>공장부</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(통일신라)토목, 건축</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>예작부</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(발해) 최고 귀족 합의, 국가 중대사</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>정당성</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(발해) 장관 '경', 좌사정 + 우사정</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6부</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(발해) 신하 여론 국왕 전달, 왕의 조칙 논박  장관 '좌상'</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>선조성</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(발해) 국왕 명령 하달, 장관 '우상'</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>중대성</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(발해) 도서 출판 및 서적 관리</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>문적원</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(발해) 최고 교육 기관</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>주자감</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(발해) 국왕 의복, 음식 등 궁정 생활 담당</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>전중시</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(발해) 왕족 사무 담당</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>종속시</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(발해) 궁중 제사 담당</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>태상시</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(발해) 외국 사절 접대 담당</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>사빈시</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(발해) 전국의 창고, 국가 소유 토지 담당</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>대농시</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(발해) 무역 업무 담당</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>사장시</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(발해) 궁중의 주례 담당</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>사선시</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>(발해) 왕실 후궁 호위, 일상생활 시중</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>항백국</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(고려) 최고 관서로서 장관으로 문하시중을 두었다 </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>중서문하성</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>(고려) 실제 정무를 나누어 담당하는 6부를 두고 정책의 집행을 담당하였다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>상서성</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(고려) 군사 기밀과 왕명의 출납을 담당하였다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>중추원</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(고려) 2품 이상인 재신과 3품 이하인 낭사로 구성되었다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>중서문하성</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(고려) 2품 이상인 추밀과 3품 이하인 승선으로 구성되었다</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>중추원</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(고려) 화폐와 곡식의 출납을 담당하였다</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>삼사</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(고려) 국방 문제를 담당하는 임시 회의 기구로, 고려 후기에 도평의사사(도당)로 개편되었다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>도병마사</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(고려) 국내 정치에 관한 법의 제정이나 각종 시행 규정을 다루던 임시 회의 기구였다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>식목도감</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(고려) 정치의 잘잘못을 논하고 관리들의 비리를 감찰하였다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>어사대</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(고려) 어사대의 관원과 중서문하성의 낭사를 포함하며, 왕의 잘못을 논하는 간쟁, 봉박, 서경권을 갖고 있었다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>대간</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>(고려) 경연과 장서를 관장하였다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>보문각</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>(고려) 국왕의 교서와 외교 문서를 관장하였다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>한림원</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>(고려) 역사 편찬</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>사관, 춘추관</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>(고려) 통역관 양성</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>통문관</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>(고려) 천문 관측 담당</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>사천대, 서운관</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>원간섭기 중서문하성과 상서성의 통합</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>첨의부</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>중앙 관제 역할</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>원간섭기 국자감의 이름 변경</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>성균관</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>중앙 관제 역할</t>
         </is>
